--- a/Team-Data/2013-14/2-22-2013-14.xlsx
+++ b/Team-Data/2013-14/2-22-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,64 +733,64 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
         <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>0.473</v>
+        <v>0.463</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J2" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K2" t="n">
         <v>0.459</v>
       </c>
       <c r="L2" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.377</v>
+        <v>0.374</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P2" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R2" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S2" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T2" t="n">
         <v>40.7</v>
       </c>
       <c r="U2" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="V2" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>4.3</v>
@@ -732,19 +799,19 @@
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -753,7 +820,7 @@
         <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
         <v>10</v>
@@ -762,37 +829,37 @@
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ2" t="n">
         <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS2" t="n">
         <v>18</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
         <v>1</v>
@@ -801,7 +868,7 @@
         <v>21</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -819,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
         <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -866,10 +933,10 @@
         <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L3" t="n">
         <v>6.4</v>
@@ -878,31 +945,31 @@
         <v>19.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="O3" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="P3" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.762</v>
+        <v>0.765</v>
       </c>
       <c r="R3" t="n">
         <v>11.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T3" t="n">
         <v>43.2</v>
       </c>
       <c r="U3" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V3" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W3" t="n">
         <v>7.2</v>
@@ -917,16 +984,16 @@
         <v>21.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC3" t="n">
         <v>-3.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>24</v>
@@ -935,13 +1002,13 @@
         <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
         <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>11</v>
@@ -965,7 +1032,7 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>11</v>
@@ -980,13 +1047,13 @@
         <v>26</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
         <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>0.472</v>
+        <v>0.481</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1051,16 +1118,16 @@
         <v>78.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L4" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
         <v>21.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.362</v>
+        <v>0.367</v>
       </c>
       <c r="O4" t="n">
         <v>18.7</v>
@@ -1069,19 +1136,19 @@
         <v>24.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R4" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S4" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T4" t="n">
         <v>39</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
         <v>14.4</v>
@@ -1096,28 +1163,28 @@
         <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="AA4" t="n">
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
         <v>8</v>
@@ -1129,10 +1196,10 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
         <v>14</v>
@@ -1147,10 +1214,10 @@
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1159,22 +1226,22 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV4" t="n">
         <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n">
         <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>0.474</v>
+        <v>0.464</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J5" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
@@ -1242,16 +1309,16 @@
         <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P5" t="n">
         <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.726</v>
+        <v>0.723</v>
       </c>
       <c r="R5" t="n">
         <v>9.1</v>
@@ -1260,19 +1327,19 @@
         <v>33.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V5" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="W5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y5" t="n">
         <v>5.4</v>
@@ -1284,13 +1351,13 @@
         <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC5" t="n">
         <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>14</v>
@@ -1299,7 +1366,7 @@
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>18</v>
@@ -1311,7 +1378,7 @@
         <v>24</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1332,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AS5" t="n">
         <v>7</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
         <v>21</v>
@@ -1359,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB5" t="n">
         <v>25</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1514,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS6" t="n">
         <v>12</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
@@ -1669,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
         <v>5</v>
@@ -1699,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="AS7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
         <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.596</v>
+        <v>0.589</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1776,7 +1843,7 @@
         <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>83.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K8" t="n">
         <v>0.473</v>
@@ -1788,7 +1855,7 @@
         <v>22.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O8" t="n">
         <v>17.2</v>
@@ -1800,22 +1867,22 @@
         <v>0.801</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S8" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T8" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
         <v>13.7</v>
       </c>
       <c r="W8" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>4.2</v>
@@ -1830,13 +1897,13 @@
         <v>19.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1866,13 +1933,13 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1893,7 +1960,7 @@
         <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>24</v>
@@ -1902,13 +1969,13 @@
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>-1.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
         <v>27</v>
@@ -2039,7 +2106,7 @@
         <v>7</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>9</v>
@@ -2054,7 +2121,7 @@
         <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
         <v>27</v>
@@ -2063,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT9" t="n">
         <v>6</v>
@@ -2072,7 +2139,7 @@
         <v>13</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>0.411</v>
+        <v>0.418</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,67 +2207,67 @@
         <v>38.8</v>
       </c>
       <c r="J10" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M10" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.312</v>
+        <v>0.313</v>
       </c>
       <c r="O10" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P10" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q10" t="n">
         <v>0.662</v>
       </c>
       <c r="R10" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="S10" t="n">
         <v>30.5</v>
       </c>
       <c r="T10" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U10" t="n">
         <v>20.7</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W10" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y10" t="n">
         <v>4.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB10" t="n">
         <v>100.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2224,7 +2291,7 @@
         <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>25</v>
@@ -2233,10 +2300,10 @@
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2251,16 +2318,16 @@
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV10" t="n">
         <v>18</v>
       </c>
       <c r="AW10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
@@ -2275,7 +2342,7 @@
         <v>14</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="n">
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.607</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2325,64 +2392,64 @@
         <v>85.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L11" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M11" t="n">
         <v>24.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="O11" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P11" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R11" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S11" t="n">
         <v>34.6</v>
       </c>
       <c r="T11" t="n">
-        <v>45.9</v>
+        <v>45.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V11" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X11" t="n">
         <v>5.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z11" t="n">
         <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.3</v>
+        <v>103.5</v>
       </c>
       <c r="AC11" t="n">
         <v>4.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,10 +2461,10 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ11" t="n">
         <v>6</v>
@@ -2406,16 +2473,16 @@
         <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2436,10 +2503,10 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX11" t="n">
         <v>9</v>
@@ -2448,7 +2515,7 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>4.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>16</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" t="n">
         <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>0.764</v>
+        <v>0.759</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2698,34 +2765,34 @@
         <v>19.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="P13" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="R13" t="n">
         <v>10.2</v>
       </c>
       <c r="S13" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="T13" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U13" t="n">
         <v>20.5</v>
       </c>
       <c r="V13" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W13" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X13" t="n">
         <v>5.7</v>
@@ -2734,19 +2801,19 @@
         <v>4.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2758,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>21</v>
@@ -2776,13 +2843,13 @@
         <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>4</v>
@@ -2800,7 +2867,7 @@
         <v>24</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>23</v>
@@ -2812,10 +2879,10 @@
         <v>11</v>
       </c>
       <c r="AZ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -2943,7 +3010,7 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2952,7 +3019,7 @@
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
@@ -3164,7 +3231,7 @@
         <v>8</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="n">
         <v>31</v>
       </c>
       <c r="F16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3244,28 +3311,28 @@
         <v>14.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O16" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P16" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="Q16" t="n">
         <v>0.752</v>
       </c>
       <c r="R16" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S16" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T16" t="n">
         <v>42.4</v>
       </c>
       <c r="U16" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V16" t="n">
         <v>13.5</v>
@@ -3277,7 +3344,7 @@
         <v>4.7</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z16" t="n">
         <v>19.7</v>
@@ -3286,19 +3353,19 @@
         <v>18.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>94.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3331,10 +3398,10 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS16" t="n">
         <v>22</v>
@@ -3352,13 +3419,13 @@
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>4</v>
@@ -3504,7 +3571,7 @@
         <v>13</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
         <v>13</v>
@@ -3546,7 +3613,7 @@
         <v>12</v>
       </c>
       <c r="BB17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" t="n">
-        <v>0.182</v>
+        <v>0.185</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3602,31 +3669,31 @@
         <v>0.423</v>
       </c>
       <c r="L18" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N18" t="n">
         <v>0.351</v>
       </c>
       <c r="O18" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P18" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R18" t="n">
         <v>11.5</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U18" t="n">
         <v>20.9</v>
@@ -3638,25 +3705,25 @@
         <v>6.8</v>
       </c>
       <c r="X18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y18" t="n">
         <v>5.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA18" t="n">
         <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>92.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="AC18" t="n">
         <v>-9.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3683,7 +3750,7 @@
         <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN18" t="n">
         <v>21</v>
@@ -3695,10 +3762,10 @@
         <v>27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS18" t="n">
         <v>29</v>
@@ -3710,19 +3777,19 @@
         <v>19</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
       </c>
       <c r="AX18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -3760,64 +3827,64 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" t="n">
         <v>28</v>
       </c>
       <c r="G19" t="n">
-        <v>0.491</v>
+        <v>0.481</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J19" t="n">
-        <v>87.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M19" t="n">
         <v>21.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O19" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P19" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R19" t="n">
         <v>12.7</v>
       </c>
       <c r="S19" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T19" t="n">
         <v>45.7</v>
       </c>
       <c r="U19" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V19" t="n">
         <v>13.8</v>
       </c>
       <c r="W19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X19" t="n">
         <v>3.7</v>
@@ -3826,25 +3893,25 @@
         <v>5.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AA19" t="n">
         <v>23.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.7</v>
+        <v>105.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>14</v>
@@ -3853,13 +3920,13 @@
         <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ19" t="n">
         <v>3</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>16</v>
@@ -3868,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3883,7 +3950,7 @@
         <v>4</v>
       </c>
       <c r="AS19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
@@ -3895,7 +3962,7 @@
         <v>7</v>
       </c>
       <c r="AW19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3913,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="BC19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="n">
-        <v>0.418</v>
+        <v>0.426</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3963,46 +4030,46 @@
         <v>83.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O20" t="n">
         <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U20" t="n">
         <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X20" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y20" t="n">
         <v>6.1</v>
@@ -4014,13 +4081,13 @@
         <v>19.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="AC20" t="n">
         <v>-1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4044,7 +4111,7 @@
         <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
@@ -4053,13 +4120,13 @@
         <v>2</v>
       </c>
       <c r="AO20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>7</v>
@@ -4074,7 +4141,7 @@
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>11</v>
@@ -4089,7 +4156,7 @@
         <v>27</v>
       </c>
       <c r="BA20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="n">
-        <v>0.375</v>
+        <v>0.382</v>
       </c>
       <c r="H21" t="n">
         <v>48.6</v>
       </c>
       <c r="I21" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J21" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K21" t="n">
         <v>0.444</v>
@@ -4157,19 +4224,19 @@
         <v>0.368</v>
       </c>
       <c r="O21" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="P21" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
         <v>40.7</v>
@@ -4178,7 +4245,7 @@
         <v>20.4</v>
       </c>
       <c r="V21" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W21" t="n">
         <v>7.8</v>
@@ -4199,16 +4266,16 @@
         <v>97.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
         <v>23</v>
@@ -4232,7 +4299,7 @@
         <v>6</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4250,7 +4317,7 @@
         <v>28</v>
       </c>
       <c r="AT21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU21" t="n">
         <v>25</v>
@@ -4271,7 +4338,7 @@
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4399,10 +4466,10 @@
         <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4411,10 +4478,10 @@
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4426,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4438,7 +4505,7 @@
         <v>14</v>
       </c>
       <c r="AV22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -4599,13 +4666,13 @@
         <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP23" t="n">
         <v>22</v>
       </c>
       <c r="AQ23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR23" t="n">
         <v>25</v>
@@ -4620,19 +4687,19 @@
         <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
       </c>
       <c r="AX23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
         <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4781,16 +4848,16 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>14</v>
@@ -4817,7 +4884,7 @@
         <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
         <v>16</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>3.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -4954,7 +5021,7 @@
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
@@ -4969,10 +5036,10 @@
         <v>9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS25" t="n">
         <v>15</v>
@@ -4996,7 +5063,7 @@
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -5124,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5133,16 +5200,16 @@
         <v>2</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM26" t="n">
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
@@ -5166,7 +5233,7 @@
         <v>4</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5187,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="BC26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" t="n">
         <v>36</v>
       </c>
       <c r="G27" t="n">
-        <v>0.345</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
@@ -5234,55 +5301,55 @@
         <v>37.1</v>
       </c>
       <c r="J27" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L27" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M27" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O27" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P27" t="n">
         <v>26.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R27" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S27" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U27" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V27" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W27" t="n">
         <v>7.2</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
         <v>5.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA27" t="n">
         <v>22.6</v>
@@ -5291,19 +5358,19 @@
         <v>101.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AH27" t="n">
         <v>10</v>
@@ -5315,10 +5382,10 @@
         <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM27" t="n">
         <v>24</v>
@@ -5333,13 +5400,13 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AS27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT27" t="n">
         <v>12</v>
@@ -5351,7 +5418,7 @@
         <v>16</v>
       </c>
       <c r="AW27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>5.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5488,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM28" t="n">
         <v>19</v>
@@ -5539,7 +5606,7 @@
         <v>13</v>
       </c>
       <c r="AY28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5670,7 +5737,7 @@
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>25</v>
@@ -5697,10 +5764,10 @@
         <v>10</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS29" t="n">
         <v>21</v>
@@ -5727,7 +5794,7 @@
         <v>29</v>
       </c>
       <c r="BA29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB29" t="n">
         <v>17</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" t="n">
         <v>19</v>
       </c>
       <c r="F30" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" t="n">
-        <v>0.345</v>
+        <v>0.352</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5783,40 +5850,40 @@
         <v>81.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L30" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M30" t="n">
         <v>19</v>
       </c>
       <c r="N30" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O30" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P30" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R30" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S30" t="n">
         <v>30.8</v>
       </c>
       <c r="T30" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U30" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V30" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
         <v>6.9</v>
@@ -5825,7 +5892,7 @@
         <v>4.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z30" t="n">
         <v>20.8</v>
@@ -5834,13 +5901,13 @@
         <v>20.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.2</v>
+        <v>-6</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
@@ -5864,25 +5931,25 @@
         <v>22</v>
       </c>
       <c r="AL30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AO30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP30" t="n">
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5894,22 +5961,22 @@
         <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW30" t="n">
         <v>26</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" t="n">
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.491</v>
+        <v>0.481</v>
       </c>
       <c r="H31" t="n">
         <v>48.8</v>
@@ -5962,28 +6029,28 @@
         <v>38.1</v>
       </c>
       <c r="J31" t="n">
-        <v>84.3</v>
+        <v>84.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L31" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.379</v>
+        <v>0.382</v>
       </c>
       <c r="O31" t="n">
         <v>15.4</v>
       </c>
       <c r="P31" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="R31" t="n">
         <v>10.8</v>
@@ -5998,10 +6065,10 @@
         <v>23.1</v>
       </c>
       <c r="V31" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W31" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X31" t="n">
         <v>4.8</v>
@@ -6010,25 +6077,25 @@
         <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA31" t="n">
         <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
         <v>14</v>
@@ -6043,13 +6110,13 @@
         <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AN31" t="n">
         <v>3</v>
@@ -6070,7 +6137,7 @@
         <v>20</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU31" t="n">
         <v>9</v>
@@ -6097,7 +6164,7 @@
         <v>18</v>
       </c>
       <c r="BC31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-22-2013-14</t>
+          <t>2014-02-22</t>
         </is>
       </c>
     </row>
